--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\ECE411\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home03\grattan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -345,44 +345,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -680,19 +680,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -704,51 +704,51 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -756,158 +756,158 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -915,18 +915,18 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -934,248 +934,248 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="7"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="7"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="7"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="8"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
